--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>名称</t>
   </si>
@@ -70,39 +70,42 @@
     <t>买入</t>
   </si>
   <si>
-    <t>宗申动力</t>
-  </si>
-  <si>
-    <t>达嘉维康</t>
+    <t>东睦股份</t>
+  </si>
+  <si>
+    <t>博敏电子</t>
   </si>
   <si>
     <t>凯因科技</t>
   </si>
   <si>
+    <t>福莱新材</t>
+  </si>
+  <si>
+    <t>弘业期货</t>
+  </si>
+  <si>
+    <t>双林股份</t>
+  </si>
+  <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
     <t>润泽科技</t>
   </si>
   <si>
-    <t>科泰电源</t>
-  </si>
-  <si>
     <t>易点天下</t>
   </si>
   <si>
-    <t>每日互动</t>
-  </si>
-  <si>
-    <t>奥飞娱乐</t>
-  </si>
-  <si>
-    <t>京北方</t>
-  </si>
-  <si>
     <t>银行ETF指数</t>
   </si>
   <si>
     <t>港股通创新药ETF工银</t>
   </si>
   <si>
+    <t>机器人ETF</t>
+  </si>
+  <si>
     <t>证券ETF</t>
   </si>
   <si>
@@ -112,39 +115,42 @@
     <t>晶晨股份</t>
   </si>
   <si>
-    <t>001696</t>
-  </si>
-  <si>
-    <t>301126</t>
+    <t>600114</t>
+  </si>
+  <si>
+    <t>603936</t>
   </si>
   <si>
     <t>688687</t>
   </si>
   <si>
+    <t>605488</t>
+  </si>
+  <si>
+    <t>001236</t>
+  </si>
+  <si>
+    <t>300100</t>
+  </si>
+  <si>
+    <t>002292</t>
+  </si>
+  <si>
     <t>300442</t>
   </si>
   <si>
-    <t>300153</t>
-  </si>
-  <si>
     <t>301171</t>
   </si>
   <si>
-    <t>300766</t>
-  </si>
-  <si>
-    <t>002292</t>
-  </si>
-  <si>
-    <t>002987</t>
-  </si>
-  <si>
     <t>512730</t>
   </si>
   <si>
     <t>159217</t>
   </si>
   <si>
+    <t>562500</t>
+  </si>
+  <si>
     <t>512880</t>
   </si>
   <si>
@@ -157,10 +163,10 @@
     <t>沪深A股</t>
   </si>
   <si>
+    <t>科创板</t>
+  </si>
+  <si>
     <t>创业板</t>
-  </si>
-  <si>
-    <t>科创板</t>
   </si>
   <si>
     <t>其他</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,25 +576,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>24.26</v>
+        <v>27.27</v>
       </c>
       <c r="F2">
-        <v>32.93</v>
+        <v>31.91</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>24.44</v>
+        <v>26.5</v>
       </c>
       <c r="I2">
-        <v>-2.25</v>
+        <v>9.1</v>
       </c>
       <c r="J2">
-        <v>-0.7799999999999999</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,25 +608,25 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>13.65</v>
+        <v>11.94</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>13.06</v>
+        <v>10.54</v>
       </c>
       <c r="I3">
-        <v>32.24</v>
+        <v>99.64</v>
       </c>
       <c r="J3">
-        <v>4.52</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,25 +640,25 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>34.86</v>
+        <v>35.89</v>
       </c>
       <c r="F4">
-        <v>75.05</v>
+        <v>75.59</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>27.05</v>
       </c>
       <c r="I4">
-        <v>68.78</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="J4">
-        <v>28.87</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -666,25 +672,25 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>49.66</v>
+        <v>32.62</v>
       </c>
       <c r="F5">
-        <v>11.12</v>
+        <v>25.09</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>49.5</v>
+        <v>32.21</v>
       </c>
       <c r="I5">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,25 +704,25 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>33.54</v>
+        <v>13.33</v>
       </c>
       <c r="F6">
-        <v>10.02</v>
+        <v>20.93</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>29.0524</v>
+        <v>12.7</v>
       </c>
       <c r="I6">
-        <v>3.96</v>
+        <v>3.14</v>
       </c>
       <c r="J6">
-        <v>15.52</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -730,25 +736,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>30.64</v>
+        <v>47.8</v>
       </c>
       <c r="F7">
-        <v>19.5</v>
+        <v>19.28</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>31.2812</v>
+        <v>46.95</v>
       </c>
       <c r="I7">
-        <v>-1.21</v>
+        <v>1.09</v>
       </c>
       <c r="J7">
-        <v>-2.05</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -762,25 +768,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>37.38</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F8">
-        <v>9.32</v>
+        <v>4.75</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>37.72</v>
+        <v>9.6561</v>
       </c>
       <c r="I8">
-        <v>-0.26</v>
+        <v>-0.05</v>
       </c>
       <c r="J8">
-        <v>-0.95</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,25 +800,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>9.449999999999999</v>
+        <v>53.65</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>11.19</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>9.4986</v>
+        <v>49.5</v>
       </c>
       <c r="I9">
-        <v>-0.23</v>
+        <v>2.75</v>
       </c>
       <c r="J9">
-        <v>-0.51</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,25 +832,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>20.09</v>
+        <v>31.61</v>
       </c>
       <c r="F10">
-        <v>35.03</v>
+        <v>18.75</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>21.4621</v>
+        <v>31.2812</v>
       </c>
       <c r="I10">
-        <v>-7.07</v>
+        <v>0.62</v>
       </c>
       <c r="J10">
-        <v>-6.39</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,25 +864,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>1.766</v>
+        <v>1.72</v>
       </c>
       <c r="F11">
-        <v>51.43</v>
+        <v>49.33</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>1.749</v>
       </c>
       <c r="I11">
-        <v>0.6899999999999999</v>
+        <v>-1.17</v>
       </c>
       <c r="J11">
-        <v>0.97</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,25 +896,25 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="F12">
-        <v>29.13</v>
+        <v>31.52</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>1.53</v>
       </c>
       <c r="I12">
-        <v>-0.27</v>
+        <v>3.7</v>
       </c>
       <c r="J12">
-        <v>-0.72</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -922,30 +928,30 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>1.215</v>
+        <v>0.975</v>
       </c>
       <c r="F13">
-        <v>50.34999999999999</v>
+        <v>48.83</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>1.231</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I13">
-        <v>-0.8999999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="J13">
-        <v>-1.22</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -954,25 +960,25 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>46.15</v>
+        <v>1.304</v>
       </c>
       <c r="F14">
-        <v>35.65</v>
+        <v>51.18000000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>45.4</v>
+        <v>1.231</v>
       </c>
       <c r="I14">
-        <v>0.98</v>
+        <v>4.09</v>
       </c>
       <c r="J14">
-        <v>1.56</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,25 +992,57 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>71.3</v>
+        <v>47.77</v>
       </c>
       <c r="F15">
-        <v>49.29</v>
+        <v>34.58</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15">
+        <v>45.4</v>
+      </c>
+      <c r="I15">
+        <v>3.07</v>
+      </c>
+      <c r="J15">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>79.17</v>
+      </c>
+      <c r="F16">
+        <v>51.3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16">
         <v>72.53</v>
       </c>
-      <c r="I15">
-        <v>-1.43</v>
-      </c>
-      <c r="J15">
-        <v>-1.71</v>
+      <c r="I16">
+        <v>7.7</v>
+      </c>
+      <c r="J16">
+        <v>9.17</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -70,7 +70,7 @@
     <t>买入</t>
   </si>
   <si>
-    <t>东睦股份</t>
+    <t>法拉电子</t>
   </si>
   <si>
     <t>博敏电子</t>
@@ -79,7 +79,13 @@
     <t>凯因科技</t>
   </si>
   <si>
-    <t>福莱新材</t>
+    <t>恒而达</t>
+  </si>
+  <si>
+    <t>宇信科技</t>
+  </si>
+  <si>
+    <t>海南华铁</t>
   </si>
   <si>
     <t>弘业期货</t>
@@ -91,12 +97,6 @@
     <t>奥飞娱乐</t>
   </si>
   <si>
-    <t>润泽科技</t>
-  </si>
-  <si>
-    <t>易点天下</t>
-  </si>
-  <si>
     <t>银行ETF指数</t>
   </si>
   <si>
@@ -109,13 +109,13 @@
     <t>证券ETF</t>
   </si>
   <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
     <t>锐明技术</t>
   </si>
   <si>
-    <t>晶晨股份</t>
-  </si>
-  <si>
-    <t>600114</t>
+    <t>600563</t>
   </si>
   <si>
     <t>603936</t>
@@ -124,7 +124,13 @@
     <t>688687</t>
   </si>
   <si>
-    <t>605488</t>
+    <t>300946</t>
+  </si>
+  <si>
+    <t>300674</t>
+  </si>
+  <si>
+    <t>603300</t>
   </si>
   <si>
     <t>001236</t>
@@ -136,12 +142,6 @@
     <t>002292</t>
   </si>
   <si>
-    <t>300442</t>
-  </si>
-  <si>
-    <t>301171</t>
-  </si>
-  <si>
     <t>512730</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>512880</t>
   </si>
   <si>
+    <t>300037</t>
+  </si>
+  <si>
     <t>002970</t>
-  </si>
-  <si>
-    <t>688099</t>
   </si>
   <si>
     <t>沪深A股</t>
@@ -579,22 +579,22 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>27.27</v>
+        <v>115.43</v>
       </c>
       <c r="F2">
-        <v>31.91</v>
+        <v>32.04</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2">
-        <v>26.5</v>
+        <v>114.93</v>
       </c>
       <c r="I2">
-        <v>9.1</v>
+        <v>1.47</v>
       </c>
       <c r="J2">
-        <v>2.87</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,7 +611,7 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>11.94</v>
+        <v>11.76</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -623,10 +623,10 @@
         <v>10.54</v>
       </c>
       <c r="I3">
-        <v>99.64</v>
+        <v>86.83</v>
       </c>
       <c r="J3">
-        <v>13.85</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,10 +643,10 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>35.89</v>
+        <v>38.49</v>
       </c>
       <c r="F4">
-        <v>75.59</v>
+        <v>76.86</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -655,10 +655,10 @@
         <v>27.05</v>
       </c>
       <c r="I4">
-        <v>77.84999999999999</v>
+        <v>100.74</v>
       </c>
       <c r="J4">
-        <v>32.64</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,22 +675,22 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>32.62</v>
+        <v>59.49</v>
       </c>
       <c r="F5">
-        <v>25.09</v>
+        <v>20.17</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>32.21</v>
+        <v>58.17</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="J5">
-        <v>1.21</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -707,22 +707,22 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>13.33</v>
+        <v>28.1</v>
       </c>
       <c r="F6">
-        <v>20.93</v>
+        <v>10.06</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>12.7</v>
+        <v>27.48</v>
       </c>
       <c r="I6">
-        <v>3.14</v>
+        <v>0.74</v>
       </c>
       <c r="J6">
-        <v>4.96</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,22 +739,22 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>47.8</v>
+        <v>10.84</v>
       </c>
       <c r="F7">
-        <v>19.28</v>
+        <v>19.66</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>46.95</v>
+        <v>10.85</v>
       </c>
       <c r="I7">
-        <v>1.09</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="J7">
-        <v>1.81</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,22 +771,22 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>9.630000000000001</v>
+        <v>13.61</v>
       </c>
       <c r="F8">
-        <v>4.75</v>
+        <v>20.42</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8">
-        <v>9.6561</v>
+        <v>12.7</v>
       </c>
       <c r="I8">
-        <v>-0.05</v>
+        <v>4.53</v>
       </c>
       <c r="J8">
-        <v>-0.37</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -803,22 +803,22 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>53.65</v>
+        <v>49.65</v>
       </c>
       <c r="F9">
-        <v>11.19</v>
+        <v>19.14</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>49.5</v>
+        <v>46.95</v>
       </c>
       <c r="I9">
-        <v>2.75</v>
+        <v>3.46</v>
       </c>
       <c r="J9">
-        <v>8.380000000000001</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -835,22 +835,22 @@
         <v>41</v>
       </c>
       <c r="E10">
-        <v>31.61</v>
+        <v>9.68</v>
       </c>
       <c r="F10">
-        <v>18.75</v>
+        <v>4.56</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>31.2812</v>
+        <v>9.6561</v>
       </c>
       <c r="I10">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="J10">
-        <v>1.02</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,10 +867,10 @@
         <v>42</v>
       </c>
       <c r="E11">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F11">
-        <v>49.33</v>
+        <v>49.66999999999999</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -879,10 +879,10 @@
         <v>1.749</v>
       </c>
       <c r="I11">
-        <v>-1.17</v>
+        <v>-0.77</v>
       </c>
       <c r="J11">
-        <v>-1.66</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="E12">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="F12">
-        <v>31.52</v>
+        <v>31.17</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -911,10 +911,10 @@
         <v>1.53</v>
       </c>
       <c r="I12">
-        <v>3.7</v>
+        <v>3.17</v>
       </c>
       <c r="J12">
-        <v>9.15</v>
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,10 +931,10 @@
         <v>44</v>
       </c>
       <c r="E13">
-        <v>0.975</v>
+        <v>0.988</v>
       </c>
       <c r="F13">
-        <v>48.83</v>
+        <v>49.33</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -943,10 +943,10 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="I13">
-        <v>2.58</v>
+        <v>3.51</v>
       </c>
       <c r="J13">
-        <v>3.73</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,10 +963,10 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>1.304</v>
+        <v>1.295</v>
       </c>
       <c r="F14">
-        <v>51.18000000000001</v>
+        <v>50.67</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -975,10 +975,10 @@
         <v>1.231</v>
       </c>
       <c r="I14">
-        <v>4.09</v>
+        <v>3.59</v>
       </c>
       <c r="J14">
-        <v>5.93</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,22 +995,22 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>47.77</v>
+        <v>41.29</v>
       </c>
       <c r="F15">
-        <v>34.58</v>
+        <v>49.41</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>45.4</v>
+        <v>42.07</v>
       </c>
       <c r="I15">
-        <v>3.07</v>
+        <v>-1.66</v>
       </c>
       <c r="J15">
-        <v>5.2</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,22 +1027,22 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <v>79.17</v>
+        <v>48.16</v>
       </c>
       <c r="F16">
-        <v>51.3</v>
+        <v>35.11</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>72.53</v>
+        <v>45.4</v>
       </c>
       <c r="I16">
-        <v>7.7</v>
+        <v>3.58</v>
       </c>
       <c r="J16">
-        <v>9.17</v>
+        <v>6.04</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -70,7 +70,10 @@
     <t>买入</t>
   </si>
   <si>
-    <t>法拉电子</t>
+    <t>共进股份</t>
+  </si>
+  <si>
+    <t>用友网络</t>
   </si>
   <si>
     <t>博敏电子</t>
@@ -79,21 +82,18 @@
     <t>凯因科技</t>
   </si>
   <si>
-    <t>恒而达</t>
+    <t>钧达股份</t>
+  </si>
+  <si>
+    <t>海南华铁</t>
   </si>
   <si>
     <t>宇信科技</t>
   </si>
   <si>
-    <t>海南华铁</t>
-  </si>
-  <si>
     <t>弘业期货</t>
   </si>
   <si>
-    <t>双林股份</t>
-  </si>
-  <si>
     <t>奥飞娱乐</t>
   </si>
   <si>
@@ -115,7 +115,10 @@
     <t>锐明技术</t>
   </si>
   <si>
-    <t>600563</t>
+    <t>603118</t>
+  </si>
+  <si>
+    <t>600588</t>
   </si>
   <si>
     <t>603936</t>
@@ -124,19 +127,16 @@
     <t>688687</t>
   </si>
   <si>
-    <t>300946</t>
+    <t>002865</t>
+  </si>
+  <si>
+    <t>603300</t>
   </si>
   <si>
     <t>300674</t>
   </si>
   <si>
-    <t>603300</t>
-  </si>
-  <si>
     <t>001236</t>
-  </si>
-  <si>
-    <t>300100</t>
   </si>
   <si>
     <t>002292</t>
@@ -579,27 +579,27 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>115.43</v>
+        <v>13.11</v>
       </c>
       <c r="F2">
-        <v>32.04</v>
+        <v>33.23</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2">
-        <v>114.93</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>1.47</v>
+        <v>3.02</v>
       </c>
       <c r="J2">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -611,27 +611,27 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>11.76</v>
+        <v>17.13</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
       <c r="H3">
-        <v>10.54</v>
+        <v>17.01</v>
       </c>
       <c r="I3">
-        <v>86.83</v>
+        <v>2.51</v>
       </c>
       <c r="J3">
-        <v>11.48</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -643,27 +643,27 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>38.49</v>
+        <v>11.27</v>
       </c>
       <c r="F4">
-        <v>76.86</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>27.05</v>
+        <v>10.54</v>
       </c>
       <c r="I4">
-        <v>100.74</v>
+        <v>51.95999999999999</v>
       </c>
       <c r="J4">
-        <v>42.26</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -675,22 +675,22 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>59.49</v>
+        <v>36.77</v>
       </c>
       <c r="F5">
-        <v>20.17</v>
+        <v>76.03</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>58.17</v>
+        <v>27.05</v>
       </c>
       <c r="I5">
-        <v>1.49</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="J5">
-        <v>2.27</v>
+        <v>35.93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -707,22 +707,22 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>28.1</v>
+        <v>47.99</v>
       </c>
       <c r="F6">
-        <v>10.06</v>
+        <v>19.91</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>27.48</v>
+        <v>48.19</v>
       </c>
       <c r="I6">
-        <v>0.74</v>
+        <v>-0.28</v>
       </c>
       <c r="J6">
-        <v>2.26</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,10 +739,10 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>10.84</v>
+        <v>10.97</v>
       </c>
       <c r="F7">
-        <v>19.66</v>
+        <v>19.82</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -751,10 +751,10 @@
         <v>10.85</v>
       </c>
       <c r="I7">
-        <v>-0.06999999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="J7">
-        <v>-0.09</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,22 +771,22 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>13.61</v>
+        <v>27.64</v>
       </c>
       <c r="F8">
-        <v>20.42</v>
+        <v>9.85</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>12.7</v>
+        <v>27.48</v>
       </c>
       <c r="I8">
-        <v>4.53</v>
+        <v>0.19</v>
       </c>
       <c r="J8">
-        <v>7.24</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -803,22 +803,22 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>49.65</v>
+        <v>12.87</v>
       </c>
       <c r="F9">
-        <v>19.14</v>
+        <v>19.23</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>46.95</v>
+        <v>12.7</v>
       </c>
       <c r="I9">
-        <v>3.46</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="J9">
-        <v>5.71</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -835,10 +835,10 @@
         <v>41</v>
       </c>
       <c r="E10">
-        <v>9.68</v>
+        <v>9.82</v>
       </c>
       <c r="F10">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -847,10 +847,10 @@
         <v>9.6561</v>
       </c>
       <c r="I10">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="J10">
-        <v>0.14</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,10 +867,10 @@
         <v>42</v>
       </c>
       <c r="E11">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="F11">
-        <v>49.66999999999999</v>
+        <v>49.71</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -879,10 +879,10 @@
         <v>1.749</v>
       </c>
       <c r="I11">
-        <v>-0.77</v>
+        <v>-0.61</v>
       </c>
       <c r="J11">
-        <v>-1.09</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="E12">
-        <v>1.65</v>
+        <v>1.651</v>
       </c>
       <c r="F12">
-        <v>31.17</v>
+        <v>31.14</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -911,10 +911,10 @@
         <v>1.53</v>
       </c>
       <c r="I12">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="J12">
-        <v>7.779999999999999</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,10 +931,10 @@
         <v>44</v>
       </c>
       <c r="E13">
-        <v>0.988</v>
+        <v>1.002</v>
       </c>
       <c r="F13">
-        <v>49.33</v>
+        <v>49.11</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -943,10 +943,10 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="I13">
-        <v>3.51</v>
+        <v>4.51</v>
       </c>
       <c r="J13">
-        <v>5.11</v>
+        <v>6.710000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,10 +963,10 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>1.295</v>
+        <v>1.325</v>
       </c>
       <c r="F14">
-        <v>50.67</v>
+        <v>50.89</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -975,10 +975,10 @@
         <v>1.231</v>
       </c>
       <c r="I14">
-        <v>3.59</v>
+        <v>5.27</v>
       </c>
       <c r="J14">
-        <v>5.04</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,10 +995,10 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>41.29</v>
+        <v>43.25</v>
       </c>
       <c r="F15">
-        <v>49.41</v>
+        <v>50.01</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -1007,10 +1007,10 @@
         <v>42.07</v>
       </c>
       <c r="I15">
-        <v>-1.66</v>
+        <v>2.51</v>
       </c>
       <c r="J15">
-        <v>-2.19</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,10 +1027,10 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <v>48.16</v>
+        <v>49.74</v>
       </c>
       <c r="F16">
-        <v>35.11</v>
+        <v>35.03</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
@@ -1039,10 +1039,10 @@
         <v>45.4</v>
       </c>
       <c r="I16">
-        <v>3.58</v>
+        <v>5.62</v>
       </c>
       <c r="J16">
-        <v>6.04</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>名称</t>
   </si>
@@ -70,10 +70,13 @@
     <t>买入</t>
   </si>
   <si>
-    <t>共进股份</t>
-  </si>
-  <si>
-    <t>用友网络</t>
+    <t>通富微电</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>全志科技</t>
   </si>
   <si>
     <t>博敏电子</t>
@@ -82,21 +85,24 @@
     <t>凯因科技</t>
   </si>
   <si>
+    <t>御银股份</t>
+  </si>
+  <si>
+    <t>弘业期货</t>
+  </si>
+  <si>
+    <t>飞龙股份</t>
+  </si>
+  <si>
+    <t>杰创智能</t>
+  </si>
+  <si>
+    <t>宇信科技</t>
+  </si>
+  <si>
     <t>钧达股份</t>
   </si>
   <si>
-    <t>海南华铁</t>
-  </si>
-  <si>
-    <t>宇信科技</t>
-  </si>
-  <si>
-    <t>弘业期货</t>
-  </si>
-  <si>
-    <t>奥飞娱乐</t>
-  </si>
-  <si>
     <t>银行ETF指数</t>
   </si>
   <si>
@@ -106,19 +112,19 @@
     <t>机器人ETF</t>
   </si>
   <si>
-    <t>证券ETF</t>
-  </si>
-  <si>
-    <t>新宙邦</t>
-  </si>
-  <si>
-    <t>锐明技术</t>
-  </si>
-  <si>
-    <t>603118</t>
-  </si>
-  <si>
-    <t>600588</t>
+    <t>爱婴室</t>
+  </si>
+  <si>
+    <t>温氏股份</t>
+  </si>
+  <si>
+    <t>002156</t>
+  </si>
+  <si>
+    <t>002050</t>
+  </si>
+  <si>
+    <t>300458</t>
   </si>
   <si>
     <t>603936</t>
@@ -127,21 +133,24 @@
     <t>688687</t>
   </si>
   <si>
+    <t>002177</t>
+  </si>
+  <si>
+    <t>001236</t>
+  </si>
+  <si>
+    <t>002536</t>
+  </si>
+  <si>
+    <t>301248</t>
+  </si>
+  <si>
+    <t>300674</t>
+  </si>
+  <si>
     <t>002865</t>
   </si>
   <si>
-    <t>603300</t>
-  </si>
-  <si>
-    <t>300674</t>
-  </si>
-  <si>
-    <t>001236</t>
-  </si>
-  <si>
-    <t>002292</t>
-  </si>
-  <si>
     <t>512730</t>
   </si>
   <si>
@@ -151,22 +160,19 @@
     <t>562500</t>
   </si>
   <si>
-    <t>512880</t>
-  </si>
-  <si>
-    <t>300037</t>
-  </si>
-  <si>
-    <t>002970</t>
+    <t>603214</t>
+  </si>
+  <si>
+    <t>300498</t>
   </si>
   <si>
     <t>沪深A股</t>
   </si>
   <si>
+    <t>创业板</t>
+  </si>
+  <si>
     <t>科创板</t>
-  </si>
-  <si>
-    <t>创业板</t>
   </si>
   <si>
     <t>其他</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,25 +582,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>13.11</v>
+        <v>30.66</v>
       </c>
       <c r="F2">
-        <v>33.23</v>
+        <v>32.89</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>30.1</v>
       </c>
       <c r="I2">
-        <v>3.02</v>
+        <v>6.77</v>
       </c>
       <c r="J2">
-        <v>0.8500000000000001</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,30 +614,30 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>17.13</v>
+        <v>31.39</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>32.4</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>17.01</v>
+        <v>31.18</v>
       </c>
       <c r="I3">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="J3">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -640,30 +646,30 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>11.27</v>
+        <v>48.67</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>33.91</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>10.54</v>
+        <v>46.09</v>
       </c>
       <c r="I4">
-        <v>51.95999999999999</v>
+        <v>20.25</v>
       </c>
       <c r="J4">
-        <v>7.02</v>
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -672,30 +678,30 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>36.77</v>
+        <v>11.23</v>
       </c>
       <c r="F5">
-        <v>76.03</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>27.05</v>
+        <v>10.54</v>
       </c>
       <c r="I5">
-        <v>85.59999999999999</v>
+        <v>49.11</v>
       </c>
       <c r="J5">
-        <v>35.93</v>
+        <v>6.550000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -704,25 +710,25 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>47.99</v>
+        <v>35.09</v>
       </c>
       <c r="F6">
-        <v>19.91</v>
+        <v>75.17</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H6">
-        <v>48.19</v>
+        <v>27.05</v>
       </c>
       <c r="I6">
-        <v>-0.28</v>
+        <v>70.8</v>
       </c>
       <c r="J6">
-        <v>-0.39</v>
+        <v>29.65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -736,25 +742,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>10.97</v>
+        <v>8.83</v>
       </c>
       <c r="F7">
-        <v>19.82</v>
+        <v>18.77</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>10.85</v>
+        <v>9.000299999999999</v>
       </c>
       <c r="I7">
-        <v>0.73</v>
+        <v>-1.23</v>
       </c>
       <c r="J7">
-        <v>1.11</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -768,25 +774,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>27.64</v>
+        <v>13.06</v>
       </c>
       <c r="F8">
-        <v>9.85</v>
+        <v>10.03</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>27.48</v>
+        <v>12.4087</v>
       </c>
       <c r="I8">
-        <v>0.19</v>
+        <v>1.7</v>
       </c>
       <c r="J8">
-        <v>0.6899999999999999</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -800,25 +806,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>12.87</v>
+        <v>28.08</v>
       </c>
       <c r="F9">
-        <v>19.23</v>
+        <v>21.32</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>12.7</v>
+        <v>27.89</v>
       </c>
       <c r="I9">
-        <v>0.8500000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="J9">
-        <v>1.34</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -832,30 +838,30 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>9.82</v>
+        <v>28.47</v>
       </c>
       <c r="F10">
-        <v>4.61</v>
+        <v>10.27</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H10">
-        <v>9.6561</v>
+        <v>27.99</v>
       </c>
       <c r="I10">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="J10">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -864,30 +870,30 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>1.734</v>
+        <v>28.28</v>
       </c>
       <c r="F11">
-        <v>49.71</v>
+        <v>20.11</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
       </c>
       <c r="H11">
-        <v>1.749</v>
+        <v>27.5613</v>
       </c>
       <c r="I11">
-        <v>-0.61</v>
+        <v>1.74</v>
       </c>
       <c r="J11">
-        <v>-0.86</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -896,30 +902,30 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>1.651</v>
+        <v>47.9</v>
       </c>
       <c r="F12">
-        <v>31.14</v>
+        <v>19.51</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>1.53</v>
+        <v>48.19</v>
       </c>
       <c r="I12">
-        <v>3.2</v>
+        <v>-0.41</v>
       </c>
       <c r="J12">
-        <v>7.91</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -928,30 +934,30 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>1.002</v>
+        <v>1.733</v>
       </c>
       <c r="F13">
-        <v>49.11</v>
+        <v>50.08000000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13">
-        <v>0.9389999999999999</v>
+        <v>1.749</v>
       </c>
       <c r="I13">
-        <v>4.51</v>
+        <v>-0.65</v>
       </c>
       <c r="J13">
-        <v>6.710000000000001</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -960,30 +966,30 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>1.325</v>
+        <v>1.611</v>
       </c>
       <c r="F14">
-        <v>50.89</v>
+        <v>30.63</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14">
-        <v>1.231</v>
+        <v>1.53</v>
       </c>
       <c r="I14">
-        <v>5.27</v>
+        <v>2.14</v>
       </c>
       <c r="J14">
-        <v>7.55</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -992,25 +998,25 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>43.25</v>
+        <v>1.052</v>
       </c>
       <c r="F15">
-        <v>50.01</v>
+        <v>50.05</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H15">
-        <v>42.07</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I15">
-        <v>2.51</v>
+        <v>8.08</v>
       </c>
       <c r="J15">
-        <v>2.78</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1024,25 +1030,57 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>49.74</v>
+        <v>19.74</v>
       </c>
       <c r="F16">
-        <v>35.03</v>
+        <v>40.05</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>45.4</v>
+        <v>19.74</v>
       </c>
       <c r="I16">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>9.539999999999999</v>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>18.34</v>
+      </c>
+      <c r="F17">
+        <v>50.74999999999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>17.83</v>
+      </c>
+      <c r="I17">
+        <v>2.79</v>
+      </c>
+      <c r="J17">
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>名称</t>
   </si>
@@ -70,30 +70,27 @@
     <t>买入</t>
   </si>
   <si>
-    <t>通富微电</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
-    <t>全志科技</t>
-  </si>
-  <si>
-    <t>博敏电子</t>
+    <t>创新医疗</t>
+  </si>
+  <si>
+    <t>东方锆业</t>
+  </si>
+  <si>
+    <t>慧智微-U</t>
   </si>
   <si>
     <t>凯因科技</t>
   </si>
   <si>
+    <t>飞龙股份</t>
+  </si>
+  <si>
     <t>御银股份</t>
   </si>
   <si>
     <t>弘业期货</t>
   </si>
   <si>
-    <t>飞龙股份</t>
-  </si>
-  <si>
     <t>杰创智能</t>
   </si>
   <si>
@@ -118,30 +115,27 @@
     <t>温氏股份</t>
   </si>
   <si>
-    <t>002156</t>
-  </si>
-  <si>
-    <t>002050</t>
-  </si>
-  <si>
-    <t>300458</t>
-  </si>
-  <si>
-    <t>603936</t>
+    <t>002173</t>
+  </si>
+  <si>
+    <t>002167</t>
+  </si>
+  <si>
+    <t>688512</t>
   </si>
   <si>
     <t>688687</t>
   </si>
   <si>
+    <t>002536</t>
+  </si>
+  <si>
     <t>002177</t>
   </si>
   <si>
     <t>001236</t>
   </si>
   <si>
-    <t>002536</t>
-  </si>
-  <si>
     <t>301248</t>
   </si>
   <si>
@@ -169,10 +163,10 @@
     <t>沪深A股</t>
   </si>
   <si>
+    <t>科创板</t>
+  </si>
+  <si>
     <t>创业板</t>
-  </si>
-  <si>
-    <t>科创板</t>
   </si>
   <si>
     <t>其他</t>
@@ -533,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,25 +576,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>30.66</v>
+        <v>23.6</v>
       </c>
       <c r="F2">
-        <v>32.89</v>
+        <v>33.1</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>30.1</v>
+        <v>23.48</v>
       </c>
       <c r="I2">
-        <v>6.77</v>
+        <v>1.89</v>
       </c>
       <c r="J2">
-        <v>1.86</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -614,30 +608,30 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>31.39</v>
+        <v>13.61</v>
       </c>
       <c r="F3">
-        <v>32.4</v>
+        <v>33.27</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>31.18</v>
+        <v>13.33</v>
       </c>
       <c r="I3">
-        <v>2.45</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="J3">
-        <v>0.67</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -646,30 +640,30 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>48.67</v>
+        <v>13.56</v>
       </c>
       <c r="F4">
-        <v>33.91</v>
+        <v>99.91</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>46.09</v>
+        <v>14.08</v>
       </c>
       <c r="I4">
-        <v>20.25</v>
+        <v>-29.47</v>
       </c>
       <c r="J4">
-        <v>5.600000000000001</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -678,30 +672,30 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>11.23</v>
+        <v>33.17</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>74.11</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>10.54</v>
+        <v>27.05</v>
       </c>
       <c r="I5">
-        <v>49.11</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="J5">
-        <v>6.550000000000001</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -710,25 +704,25 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>35.09</v>
+        <v>27.68</v>
       </c>
       <c r="F6">
-        <v>75.17</v>
+        <v>21.56</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>27.05</v>
+        <v>27.89</v>
       </c>
       <c r="I6">
-        <v>70.8</v>
+        <v>-0.5499999999999999</v>
       </c>
       <c r="J6">
-        <v>29.65</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -742,25 +736,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>8.83</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F7">
-        <v>18.77</v>
+        <v>18.46</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>9.000299999999999</v>
       </c>
       <c r="I7">
-        <v>-1.23</v>
+        <v>-3.9</v>
       </c>
       <c r="J7">
-        <v>-1.89</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -774,25 +768,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>13.06</v>
+        <v>12.62</v>
       </c>
       <c r="F8">
-        <v>10.03</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>12.4087</v>
       </c>
       <c r="I8">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="J8">
         <v>1.7</v>
-      </c>
-      <c r="J8">
-        <v>5.25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -806,25 +800,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>28.08</v>
+        <v>27.78</v>
       </c>
       <c r="F9">
-        <v>21.32</v>
+        <v>10.28</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>27.89</v>
+        <v>27.99</v>
       </c>
       <c r="I9">
-        <v>0.49</v>
+        <v>-0.26</v>
       </c>
       <c r="J9">
-        <v>0.6799999999999999</v>
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -838,25 +832,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>28.47</v>
+        <v>27.6</v>
       </c>
       <c r="F10">
-        <v>10.27</v>
+        <v>20.14</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>27.99</v>
+        <v>27.5613</v>
       </c>
       <c r="I10">
-        <v>0.59</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>1.71</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -870,30 +864,30 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>28.28</v>
+        <v>46.95</v>
       </c>
       <c r="F11">
-        <v>20.11</v>
+        <v>19.62</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H11">
-        <v>27.5613</v>
+        <v>48.19</v>
       </c>
       <c r="I11">
-        <v>1.74</v>
+        <v>-1.72</v>
       </c>
       <c r="J11">
-        <v>2.61</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -902,25 +896,25 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>47.9</v>
+        <v>1.719</v>
       </c>
       <c r="F12">
-        <v>19.51</v>
+        <v>50.23</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>48.19</v>
+        <v>1.749</v>
       </c>
       <c r="I12">
-        <v>-0.41</v>
+        <v>-1.21</v>
       </c>
       <c r="J12">
-        <v>-0.6</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -934,30 +928,30 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>1.733</v>
+        <v>1.574</v>
       </c>
       <c r="F13">
-        <v>50.08000000000001</v>
+        <v>30.26</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>1.749</v>
+        <v>1.53</v>
       </c>
       <c r="I13">
-        <v>-0.65</v>
+        <v>1.17</v>
       </c>
       <c r="J13">
-        <v>-0.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -966,30 +960,30 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>1.611</v>
+        <v>1.032</v>
       </c>
       <c r="F14">
-        <v>30.63</v>
+        <v>49.57</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>1.53</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I14">
-        <v>2.14</v>
+        <v>6.65</v>
       </c>
       <c r="J14">
-        <v>5.29</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -998,25 +992,25 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>1.052</v>
+        <v>19.31</v>
       </c>
       <c r="F15">
-        <v>50.05</v>
+        <v>39.69</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15">
-        <v>0.9389999999999999</v>
+        <v>19.74</v>
       </c>
       <c r="I15">
-        <v>8.08</v>
+        <v>-1.73</v>
       </c>
       <c r="J15">
-        <v>12.03</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1030,57 +1024,25 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>19.74</v>
+        <v>18.19</v>
       </c>
       <c r="F16">
-        <v>40.05</v>
+        <v>50.99</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>19.74</v>
+        <v>17.83</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="J16">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>18.34</v>
-      </c>
-      <c r="F17">
-        <v>50.74999999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17">
-        <v>17.83</v>
-      </c>
-      <c r="I17">
-        <v>2.79</v>
-      </c>
-      <c r="J17">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -70,13 +70,13 @@
     <t>买入</t>
   </si>
   <si>
-    <t>创新医疗</t>
-  </si>
-  <si>
-    <t>东方锆业</t>
-  </si>
-  <si>
-    <t>慧智微-U</t>
+    <t>深桑达Ａ</t>
+  </si>
+  <si>
+    <t>蔚蓝锂芯</t>
+  </si>
+  <si>
+    <t>博敏电子</t>
   </si>
   <si>
     <t>凯因科技</t>
@@ -115,13 +115,13 @@
     <t>温氏股份</t>
   </si>
   <si>
-    <t>002173</t>
-  </si>
-  <si>
-    <t>002167</t>
-  </si>
-  <si>
-    <t>688512</t>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>002245</t>
+  </si>
+  <si>
+    <t>603936</t>
   </si>
   <si>
     <t>688687</t>
@@ -579,22 +579,22 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>23.6</v>
+        <v>25.93</v>
       </c>
       <c r="F2">
-        <v>33.1</v>
+        <v>32.02999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2">
-        <v>23.48</v>
+        <v>26.97</v>
       </c>
       <c r="I2">
-        <v>1.89</v>
+        <v>-14.19</v>
       </c>
       <c r="J2">
-        <v>0.51</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,22 +611,22 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>13.61</v>
+        <v>17.89</v>
       </c>
       <c r="F3">
-        <v>33.27</v>
+        <v>33.02</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
       <c r="H3">
-        <v>13.33</v>
+        <v>18.05</v>
       </c>
       <c r="I3">
-        <v>7.670000000000001</v>
+        <v>-3.26</v>
       </c>
       <c r="J3">
-        <v>2.1</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,22 +643,22 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>13.56</v>
+        <v>12.74</v>
       </c>
       <c r="F4">
-        <v>99.91</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>14.08</v>
+        <v>12.8</v>
       </c>
       <c r="I4">
-        <v>-29.47</v>
+        <v>-3.5</v>
       </c>
       <c r="J4">
-        <v>-3.69</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,10 +675,10 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>33.17</v>
+        <v>33.4</v>
       </c>
       <c r="F5">
-        <v>74.11</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -687,10 +687,10 @@
         <v>27.05</v>
       </c>
       <c r="I5">
-        <v>53.90000000000001</v>
+        <v>55.92</v>
       </c>
       <c r="J5">
-        <v>22.62</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -707,10 +707,10 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>27.68</v>
+        <v>26.62</v>
       </c>
       <c r="F6">
-        <v>21.56</v>
+        <v>20.98</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
@@ -719,10 +719,10 @@
         <v>27.89</v>
       </c>
       <c r="I6">
-        <v>-0.5499999999999999</v>
+        <v>-3.28</v>
       </c>
       <c r="J6">
-        <v>-0.72</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,10 +739,10 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>8.460000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F7">
-        <v>18.46</v>
+        <v>18.85</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -751,10 +751,10 @@
         <v>9.000299999999999</v>
       </c>
       <c r="I7">
-        <v>-3.9</v>
+        <v>-3.32</v>
       </c>
       <c r="J7">
-        <v>-6</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,10 +771,10 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>12.62</v>
+        <v>12.38</v>
       </c>
       <c r="F8">
-        <v>9.950000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -783,10 +783,10 @@
         <v>12.4087</v>
       </c>
       <c r="I8">
-        <v>0.5599999999999999</v>
+        <v>-0.08</v>
       </c>
       <c r="J8">
-        <v>1.7</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -803,10 +803,10 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>27.78</v>
+        <v>27.86</v>
       </c>
       <c r="F9">
-        <v>10.28</v>
+        <v>10.43</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -815,10 +815,10 @@
         <v>27.99</v>
       </c>
       <c r="I9">
-        <v>-0.26</v>
+        <v>-0.16</v>
       </c>
       <c r="J9">
-        <v>-0.7100000000000001</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -835,10 +835,10 @@
         <v>41</v>
       </c>
       <c r="E10">
-        <v>27.6</v>
+        <v>27.91</v>
       </c>
       <c r="F10">
-        <v>20.14</v>
+        <v>20.6</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -847,10 +847,10 @@
         <v>27.5613</v>
       </c>
       <c r="I10">
-        <v>0.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="J10">
-        <v>0.06999999999999999</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,10 +867,10 @@
         <v>42</v>
       </c>
       <c r="E11">
-        <v>46.95</v>
+        <v>45.6</v>
       </c>
       <c r="F11">
-        <v>19.62</v>
+        <v>19.28</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -879,10 +879,10 @@
         <v>48.19</v>
       </c>
       <c r="I11">
-        <v>-1.72</v>
+        <v>-3.58</v>
       </c>
       <c r="J11">
-        <v>-2.66</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="E12">
-        <v>1.719</v>
+        <v>1.703</v>
       </c>
       <c r="F12">
-        <v>50.23</v>
+        <v>49.38</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -911,10 +911,10 @@
         <v>1.749</v>
       </c>
       <c r="I12">
-        <v>-1.21</v>
+        <v>-1.85</v>
       </c>
       <c r="J12">
-        <v>-1.72</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,10 +931,10 @@
         <v>44</v>
       </c>
       <c r="E13">
-        <v>1.574</v>
+        <v>1.639</v>
       </c>
       <c r="F13">
-        <v>30.26</v>
+        <v>31.27</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -943,10 +943,10 @@
         <v>1.53</v>
       </c>
       <c r="I13">
-        <v>1.17</v>
+        <v>2.88</v>
       </c>
       <c r="J13">
-        <v>2.88</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,10 +963,10 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>1.032</v>
+        <v>1.019</v>
       </c>
       <c r="F14">
-        <v>49.57</v>
+        <v>49.25</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -975,10 +975,10 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="I14">
-        <v>6.65</v>
+        <v>5.72</v>
       </c>
       <c r="J14">
-        <v>9.9</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,10 +995,10 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>19.31</v>
+        <v>19.25</v>
       </c>
       <c r="F15">
-        <v>39.69</v>
+        <v>39.56</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
@@ -1007,10 +1007,10 @@
         <v>19.74</v>
       </c>
       <c r="I15">
-        <v>-1.73</v>
+        <v>-1.97</v>
       </c>
       <c r="J15">
-        <v>-2.13</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,10 +1027,10 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <v>18.19</v>
+        <v>18.24</v>
       </c>
       <c r="F16">
-        <v>50.99</v>
+        <v>51.13</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -1039,10 +1039,10 @@
         <v>17.83</v>
       </c>
       <c r="I16">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="J16">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>名称</t>
   </si>
@@ -70,6 +70,9 @@
     <t>买入</t>
   </si>
   <si>
+    <t>长电科技</t>
+  </si>
+  <si>
     <t>深桑达Ａ</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>港股通创新药ETF工银</t>
   </si>
   <si>
+    <t>科创芯片ETF博时</t>
+  </si>
+  <si>
     <t>机器人ETF</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>温氏股份</t>
   </si>
   <si>
+    <t>600584</t>
+  </si>
+  <si>
     <t>000032</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
   </si>
   <si>
     <t>159217</t>
+  </si>
+  <si>
+    <t>588990</t>
   </si>
   <si>
     <t>562500</t>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,25 +588,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>25.93</v>
+        <v>40.36</v>
       </c>
       <c r="F2">
-        <v>32.02999999999999</v>
+        <v>33.31</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>26.97</v>
+        <v>41.27</v>
       </c>
       <c r="I2">
-        <v>-14.19</v>
+        <v>-8.110000000000001</v>
       </c>
       <c r="J2">
-        <v>-3.78</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,30 +620,30 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>17.89</v>
+        <v>24.75</v>
       </c>
       <c r="F3">
-        <v>33.02</v>
+        <v>31.26</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <v>18.05</v>
+        <v>26.97</v>
       </c>
       <c r="I3">
-        <v>-3.26</v>
+        <v>-30.28</v>
       </c>
       <c r="J3">
-        <v>-0.72</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -640,30 +652,30 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>12.74</v>
+        <v>17.89</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>33.76</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>12.8</v>
+        <v>18.05</v>
       </c>
       <c r="I4">
-        <v>-3.5</v>
+        <v>-3.26</v>
       </c>
       <c r="J4">
-        <v>-0.47</v>
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -672,30 +684,30 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>33.4</v>
+        <v>12.17</v>
       </c>
       <c r="F5">
-        <v>74.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H5">
-        <v>27.05</v>
+        <v>12.8</v>
       </c>
       <c r="I5">
-        <v>55.92</v>
+        <v>-36.74</v>
       </c>
       <c r="J5">
-        <v>23.48</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -704,25 +716,25 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>26.62</v>
+        <v>34.44</v>
       </c>
       <c r="F6">
-        <v>20.98</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6">
-        <v>27.89</v>
+        <v>27.05</v>
       </c>
       <c r="I6">
-        <v>-3.28</v>
+        <v>65.08</v>
       </c>
       <c r="J6">
-        <v>-4.55</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -736,25 +748,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>8.539999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="F7">
-        <v>18.85</v>
+        <v>20.65</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>9.000299999999999</v>
+        <v>27.89</v>
       </c>
       <c r="I7">
-        <v>-3.32</v>
+        <v>-5.899999999999999</v>
       </c>
       <c r="J7">
-        <v>-5.11</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -768,25 +780,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>12.38</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F8">
-        <v>9.869999999999999</v>
+        <v>18.57</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>12.4087</v>
+        <v>9.000299999999999</v>
       </c>
       <c r="I8">
-        <v>-0.08</v>
+        <v>-5.63</v>
       </c>
       <c r="J8">
-        <v>-0.23</v>
+        <v>-8.67</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -800,25 +812,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>27.86</v>
+        <v>12.14</v>
       </c>
       <c r="F9">
-        <v>10.43</v>
+        <v>9.91</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>27.99</v>
+        <v>12.4087</v>
       </c>
       <c r="I9">
-        <v>-0.16</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="J9">
-        <v>-0.46</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -832,25 +844,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>27.91</v>
+        <v>26.9</v>
       </c>
       <c r="F10">
-        <v>20.6</v>
+        <v>10.31</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>27.5613</v>
+        <v>27.99</v>
       </c>
       <c r="I10">
-        <v>0.8500000000000001</v>
+        <v>-1.34</v>
       </c>
       <c r="J10">
-        <v>1.27</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -864,30 +876,30 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>45.6</v>
+        <v>27.07</v>
       </c>
       <c r="F11">
-        <v>19.28</v>
+        <v>20.45</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H11">
-        <v>48.19</v>
+        <v>27.5613</v>
       </c>
       <c r="I11">
-        <v>-3.58</v>
+        <v>-1.19</v>
       </c>
       <c r="J11">
-        <v>-5.37</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -896,25 +908,25 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>1.703</v>
+        <v>46.52</v>
       </c>
       <c r="F12">
-        <v>49.38</v>
+        <v>20.13</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12">
-        <v>1.749</v>
+        <v>48.19</v>
       </c>
       <c r="I12">
-        <v>-1.85</v>
+        <v>-2.31</v>
       </c>
       <c r="J12">
-        <v>-2.63</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -928,30 +940,30 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>1.639</v>
+        <v>1.701</v>
       </c>
       <c r="F13">
-        <v>31.27</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H13">
-        <v>1.53</v>
+        <v>1.749</v>
       </c>
       <c r="I13">
-        <v>2.88</v>
+        <v>-1.93</v>
       </c>
       <c r="J13">
-        <v>7.12</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -960,30 +972,30 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>1.019</v>
+        <v>1.676</v>
       </c>
       <c r="F14">
-        <v>49.25</v>
+        <v>31.77</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>0.9389999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="I14">
-        <v>5.72</v>
+        <v>3.86</v>
       </c>
       <c r="J14">
-        <v>8.52</v>
+        <v>9.610000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -992,30 +1004,30 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15">
-        <v>19.25</v>
+        <v>2.308</v>
       </c>
       <c r="F15">
-        <v>39.56</v>
+        <v>50.32</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H15">
-        <v>19.74</v>
+        <v>2.301</v>
       </c>
       <c r="I15">
-        <v>-1.97</v>
+        <v>0.23</v>
       </c>
       <c r="J15">
-        <v>-2.48</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1024,25 +1036,89 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>18.24</v>
+        <v>1.014</v>
       </c>
       <c r="F16">
-        <v>51.13</v>
+        <v>49.05</v>
       </c>
       <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="I16">
+        <v>5.36</v>
+      </c>
+      <c r="J16">
+        <v>8.200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="H16">
+      <c r="E17">
+        <v>19.18</v>
+      </c>
+      <c r="F17">
+        <v>39.62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>19.74</v>
+      </c>
+      <c r="I17">
+        <v>-2.25</v>
+      </c>
+      <c r="J17">
+        <v>-2.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>18.11</v>
+      </c>
+      <c r="F18">
+        <v>51.02</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
         <v>17.83</v>
       </c>
-      <c r="I16">
-        <v>2.24</v>
-      </c>
-      <c r="J16">
-        <v>2.3</v>
+      <c r="I18">
+        <v>1.53</v>
+      </c>
+      <c r="J18">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -504,19 +504,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>恒宝股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002177</t>
+          <t>002104</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.72</v>
+        <v>24.82</v>
       </c>
       <c r="F2" t="n">
-        <v>18.24</v>
+        <v>32.82</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -524,24 +524,24 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.000299999999999</v>
+        <v>24.57</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.24</v>
+        <v>3.32</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.23</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -551,19 +551,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>祥鑫科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002536</t>
+          <t>002965</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.94</v>
+        <v>44.58</v>
       </c>
       <c r="F3" t="n">
-        <v>21.89</v>
+        <v>33.32</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -571,17 +571,17 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>27.89</v>
+        <v>43.98</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.029999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.99</v>
+        <v>1.36</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -598,19 +598,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>605488</t>
+          <t>002177</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.62</v>
+        <v>7.98</v>
       </c>
       <c r="F4" t="n">
-        <v>9.94</v>
+        <v>27.35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,17 +618,17 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>35.0734</v>
+        <v>8.594799999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.41</v>
+        <v>-6.65</v>
       </c>
       <c r="J4" t="n">
-        <v>-12.7</v>
+        <v>-7.149999999999999</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -645,19 +645,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002865</t>
+          <t>002536</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.22</v>
+        <v>26.95</v>
       </c>
       <c r="F5" t="n">
-        <v>20.47</v>
+        <v>22.02</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>48.19</v>
+        <v>27.89</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.109999999999999</v>
+        <v>-2.43</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.16</v>
+        <v>-3.37</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -692,19 +692,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>爱婴室</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>603214</t>
+          <t>605488</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.12</v>
+        <v>31.18</v>
       </c>
       <c r="F6" t="n">
-        <v>48.32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -712,17 +712,64 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>19.516</v>
+        <v>35.0734</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.97</v>
+        <v>-3.86</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.03</v>
+        <v>-11.1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002865</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -737,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,7 +847,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-精选个股</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -810,37 +857,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>凯因科技</t>
+          <t>朗新集团</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>688687</v>
+        <v>300682</v>
       </c>
       <c r="E2" t="n">
-        <v>30.37</v>
+        <v>22.98</v>
       </c>
       <c r="F2" t="n">
-        <v>72.38</v>
+        <v>31.53</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>科创板</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>27.05</v>
+        <v>24.94</v>
       </c>
       <c r="I2" t="n">
-        <v>29.24</v>
+        <v>-26.53</v>
       </c>
       <c r="J2" t="n">
-        <v>12.27</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -850,31 +897,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>铜冠铜箔</t>
+          <t>传艺科技</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>301217</v>
+        <v>2866</v>
       </c>
       <c r="E3" t="n">
-        <v>28.2</v>
+        <v>19.56</v>
       </c>
       <c r="F3" t="n">
-        <v>18.26</v>
+        <v>32.85</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.48</v>
+        <v>-7.13</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.970000000000001</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="4">
@@ -890,17 +937,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宇信科技</t>
+          <t>汇金股份</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>300674</v>
+        <v>300368</v>
       </c>
       <c r="E4" t="n">
-        <v>25.22</v>
+        <v>14.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>20.83</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -908,13 +955,13 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>69.6208</v>
+        <v>14.3925</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.31</v>
+        <v>0.48</v>
       </c>
       <c r="J4" t="n">
-        <v>-63.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -930,17 +977,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>605488</v>
+        <v>2177</v>
       </c>
       <c r="E5" t="n">
-        <v>30.9</v>
+        <v>7.72</v>
       </c>
       <c r="F5" t="n">
-        <v>19.63</v>
+        <v>26.85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -948,13 +995,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>32.97</v>
+        <v>8.594799999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.95</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.279999999999999</v>
+        <v>-10.18</v>
       </c>
     </row>
     <row r="6">
@@ -970,17 +1017,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2536</v>
+        <v>605488</v>
       </c>
       <c r="E6" t="n">
-        <v>24.73</v>
+        <v>30.65</v>
       </c>
       <c r="F6" t="n">
-        <v>21.26</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -988,13 +1035,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27.89</v>
+        <v>35.0734</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.140000000000001</v>
+        <v>-4.390000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>-11.33</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="7">
@@ -1010,17 +1057,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2177</v>
+        <v>2536</v>
       </c>
       <c r="E7" t="n">
-        <v>7.73</v>
+        <v>26.99</v>
       </c>
       <c r="F7" t="n">
-        <v>18.61</v>
+        <v>22.39</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1028,13 +1075,13 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.000299999999999</v>
+        <v>27.89</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.17</v>
+        <v>-2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>-14.11</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="8">
@@ -1057,10 +1104,10 @@
         <v>2865</v>
       </c>
       <c r="E8" t="n">
-        <v>46.08</v>
+        <v>45.29</v>
       </c>
       <c r="F8" t="n">
-        <v>21.25</v>
+        <v>20.15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1071,210 +1118,10 @@
         <v>48.19</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.92</v>
+        <v>-4.01</v>
       </c>
       <c r="J8" t="n">
-        <v>-4.38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>E-主题成长优选</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银行ETF指数</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>512730</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.702</v>
-      </c>
-      <c r="F9" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-1.89</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-2.69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>E-主题成长优选</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>港股通创新药ETF工银</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>159217</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>E-主题轮动精选</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>科创芯片ETF博时</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>588990</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="F11" t="n">
-        <v>49.32</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2.066</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>爱婴室</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>603214</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="F12" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>19.516</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-2.44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>温氏股份</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>300498</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="F13" t="n">
-        <v>51.77</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.54</v>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,411 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>收益率(%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例(%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8.594799999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-7.73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-8.32</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600577</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.580000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-4.77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-6.63</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>605488</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>35.0734</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002865</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>75.56999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>紫光国微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>78.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33.04000000000001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>78.93000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,10 +913,8 @@
           <t>恒宝股份</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002104</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2104</v>
       </c>
       <c r="E2" t="n">
         <v>24.82</v>
@@ -554,10 +958,8 @@
           <t>祥鑫科技</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002965</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2965</v>
       </c>
       <c r="E3" t="n">
         <v>44.58</v>
@@ -601,10 +1003,8 @@
           <t>御银股份</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002177</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2177</v>
       </c>
       <c r="E4" t="n">
         <v>7.98</v>
@@ -648,10 +1048,8 @@
           <t>飞龙股份</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2536</v>
       </c>
       <c r="E5" t="n">
         <v>26.95</v>
@@ -695,10 +1093,8 @@
           <t>福莱新材</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>605488</t>
-        </is>
+      <c r="D6" t="n">
+        <v>605488</v>
       </c>
       <c r="E6" t="n">
         <v>31.18</v>
@@ -742,10 +1138,8 @@
           <t>钧达股份</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002865</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2865</v>
       </c>
       <c r="E7" t="n">
         <v>45.9</v>
@@ -778,7 +1172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,6 +428,329 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>收益率(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例(%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>8.594799999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-6.260000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-8.709999999999999</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>上海电影</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>601595</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>002865</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>75.17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>603259</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33.34</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>106.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -508,10 +832,8 @@
           <t>御银股份</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002177</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2177</v>
       </c>
       <c r="E2" t="n">
         <v>7.88</v>
@@ -555,10 +877,8 @@
           <t>精达股份</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600577</t>
-        </is>
+      <c r="D3" t="n">
+        <v>600577</v>
       </c>
       <c r="E3" t="n">
         <v>8.58</v>
@@ -602,10 +922,8 @@
           <t>飞龙股份</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2536</v>
       </c>
       <c r="E4" t="n">
         <v>26.04</v>
@@ -649,10 +967,8 @@
           <t>福莱新材</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>605488</t>
-        </is>
+      <c r="D5" t="n">
+        <v>605488</v>
       </c>
       <c r="E5" t="n">
         <v>34.3</v>
@@ -696,10 +1012,8 @@
           <t>钧达股份</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002865</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2865</v>
       </c>
       <c r="E6" t="n">
         <v>45.3</v>
@@ -743,10 +1057,8 @@
           <t>美的集团</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000333</t>
-        </is>
+      <c r="D7" t="n">
+        <v>333</v>
       </c>
       <c r="E7" t="n">
         <v>75.56999999999999</v>
@@ -790,10 +1102,8 @@
           <t>紫光国微</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002049</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2049</v>
       </c>
       <c r="E8" t="n">
         <v>78.33</v>
@@ -826,7 +1136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1172,7 +1482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination_holding" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,10 +506,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.8</v>
+        <v>8.08</v>
       </c>
       <c r="E2" t="n">
-        <v>27.22</v>
+        <v>27.79</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -519,38 +520,38 @@
         <v>8.594799999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.59</v>
+        <v>-5.57</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.25</v>
+        <v>-5.99</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002536</t>
+          <t>603278</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25.46</v>
+        <v>11.71</v>
       </c>
       <c r="E3" t="n">
-        <v>21.18</v>
+        <v>32.22</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -558,41 +559,41 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>27.89</v>
+        <v>11.69</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.260000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.709999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海电影</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>601595</t>
+          <t>002600</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32.26</v>
+        <v>15.35</v>
       </c>
       <c r="E4" t="n">
-        <v>10.96</v>
+        <v>33.47</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -600,41 +601,41 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>32.22</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.12</v>
+        <v>2.33</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>英联股份</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>002865</t>
+          <t>002846</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45.91</v>
+        <v>20.13</v>
       </c>
       <c r="E5" t="n">
-        <v>20.49</v>
+        <v>33.13</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -642,41 +643,41 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>48.19</v>
+        <v>20.02</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.15</v>
+        <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.73</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>美的集团</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000333</t>
+          <t>002536</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75.17</v>
+        <v>26.14</v>
       </c>
       <c r="E6" t="n">
-        <v>32.72</v>
+        <v>21.44</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -684,41 +685,41 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>76.48999999999999</v>
+        <v>27.89</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.76</v>
+        <v>-4.51</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.73</v>
+        <v>-6.27</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>钧达股份</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>603259</t>
+          <t>002865</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>107</v>
+        <v>44.81</v>
       </c>
       <c r="E7" t="n">
-        <v>33.34</v>
+        <v>19.72</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -726,17 +727,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>106.45</v>
+        <v>48.19</v>
       </c>
       <c r="H7" t="n">
-        <v>1.72</v>
+        <v>-4.67</v>
       </c>
       <c r="I7" t="n">
-        <v>0.52</v>
+        <v>-7.01</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
     </row>
@@ -746,6 +747,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>收益率(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例(%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2177</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>8.594799999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2536</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-6.260000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-8.709999999999999</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>上海电影</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>601595</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75.17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>603259</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33.34</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>106.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1136,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1482,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-09-18" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-09-19" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>名称</t>
   </si>
@@ -52,12 +52,6 @@
     <t>先进数通</t>
   </si>
   <si>
-    <t>上海新阳</t>
-  </si>
-  <si>
-    <t>神州数码</t>
-  </si>
-  <si>
     <t>铜冠铜箔</t>
   </si>
   <si>
@@ -80,12 +74,6 @@
   </si>
   <si>
     <t>300541</t>
-  </si>
-  <si>
-    <t>300236</t>
-  </si>
-  <si>
-    <t>000034</t>
   </si>
   <si>
     <t>301217</t>
@@ -470,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,83 +501,83 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>15.68</v>
+        <v>15.61</v>
       </c>
       <c r="E2">
-        <v>32.87</v>
+        <v>32.45</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>16.07</v>
       </c>
       <c r="H2">
-        <v>-8.300000000000001</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="I2">
-        <v>-2.43</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>53.98</v>
+        <v>32.19</v>
       </c>
       <c r="E3">
-        <v>32.75</v>
+        <v>10.43</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>55.31</v>
+        <v>32.85</v>
       </c>
       <c r="H3">
-        <v>-8.19</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="I3">
-        <v>-2.4</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>45.34</v>
+        <v>16.96</v>
       </c>
       <c r="E4">
-        <v>33.75</v>
+        <v>10.58</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>45.25</v>
+        <v>9.871700000000001</v>
       </c>
       <c r="H4">
-        <v>0.6799999999999999</v>
+        <v>14.04</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>71.91</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -600,25 +588,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>32.62</v>
+        <v>31.81</v>
       </c>
       <c r="E5">
-        <v>10.36</v>
+        <v>18.14</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>32.85</v>
+        <v>33.8</v>
       </c>
       <c r="H5">
-        <v>-0.24</v>
+        <v>-3.61</v>
       </c>
       <c r="I5">
-        <v>-0.7000000000000001</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -629,25 +617,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>16.4</v>
+        <v>43.04</v>
       </c>
       <c r="E6">
-        <v>10.03</v>
+        <v>1.01</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>9.871700000000001</v>
+        <v>124.3589</v>
       </c>
       <c r="H6">
-        <v>12.93</v>
+        <v>-6.06</v>
       </c>
       <c r="I6">
-        <v>66.13</v>
+        <v>-65.39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -658,25 +646,25 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>32.65</v>
+        <v>24.93</v>
       </c>
       <c r="E7">
-        <v>18.26</v>
+        <v>12.11</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>33.8</v>
+        <v>26.44</v>
       </c>
       <c r="H7">
-        <v>-2.09</v>
+        <v>-2.34</v>
       </c>
       <c r="I7">
-        <v>-3.4</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -687,25 +675,25 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>43.63</v>
+        <v>7.66</v>
       </c>
       <c r="E8">
-        <v>1.01</v>
+        <v>26.04</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>124.3589</v>
+        <v>8.594799999999999</v>
       </c>
       <c r="H8">
-        <v>-6.01</v>
+        <v>-10.1</v>
       </c>
       <c r="I8">
-        <v>-64.92</v>
+        <v>-10.88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -716,83 +704,25 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>26.74</v>
+      </c>
+      <c r="E9">
+        <v>21.68</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="D9">
-        <v>26.02</v>
-      </c>
-      <c r="E9">
-        <v>12.39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
       <c r="G9">
-        <v>26.44</v>
+        <v>27.89</v>
       </c>
       <c r="H9">
-        <v>-0.65</v>
+        <v>-2.97</v>
       </c>
       <c r="I9">
-        <v>-1.59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>7.77</v>
-      </c>
-      <c r="E10">
-        <v>25.9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>8.594799999999999</v>
-      </c>
-      <c r="H10">
-        <v>-8.91</v>
-      </c>
-      <c r="I10">
-        <v>-9.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>27.76</v>
-      </c>
-      <c r="E11">
-        <v>22.06</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11">
-        <v>27.89</v>
-      </c>
-      <c r="H11">
-        <v>-0.34</v>
-      </c>
-      <c r="I11">
-        <v>-0.47</v>
+        <v>-4.16</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-09-19" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-09-22" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>名称</t>
   </si>
@@ -43,64 +43,49 @@
     <t>盈亏比例(%)</t>
   </si>
   <si>
-    <t>逻辑为王</t>
-  </si>
-  <si>
     <t>一枝梨花</t>
   </si>
   <si>
-    <t>先进数通</t>
+    <t>东信和平</t>
   </si>
   <si>
     <t>铜冠铜箔</t>
   </si>
   <si>
-    <t>汇金股份</t>
-  </si>
-  <si>
     <t>江海股份</t>
   </si>
   <si>
     <t>钧达股份</t>
   </si>
   <si>
-    <t>东信和平</t>
-  </si>
-  <si>
     <t>御银股份</t>
   </si>
   <si>
     <t>飞龙股份</t>
   </si>
   <si>
-    <t>300541</t>
+    <t>002017</t>
   </si>
   <si>
     <t>301217</t>
   </si>
   <si>
-    <t>300368</t>
-  </si>
-  <si>
     <t>002484</t>
   </si>
   <si>
     <t>002865</t>
   </si>
   <si>
-    <t>002017</t>
-  </si>
-  <si>
     <t>002177</t>
   </si>
   <si>
     <t>002536</t>
   </si>
   <si>
+    <t>沪深A股</t>
+  </si>
+  <si>
     <t>创业板</t>
-  </si>
-  <si>
-    <t>沪深A股</t>
   </si>
 </sst>
 </file>
@@ -458,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,231 +483,173 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>15.61</v>
+        <v>25.02</v>
       </c>
       <c r="E2">
-        <v>32.45</v>
+        <v>22.74</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>16.07</v>
+        <v>25.6454</v>
       </c>
       <c r="H2">
-        <v>-9.779999999999999</v>
+        <v>-1.84</v>
       </c>
       <c r="I2">
-        <v>-2.86</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>32.19</v>
+        <v>32.35</v>
       </c>
       <c r="E3">
-        <v>10.43</v>
+        <v>10.34</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>32.85</v>
       </c>
       <c r="H3">
-        <v>-0.6799999999999999</v>
+        <v>-0.52</v>
       </c>
       <c r="I3">
-        <v>-2.01</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>16.96</v>
+        <v>32.36</v>
       </c>
       <c r="E4">
-        <v>10.58</v>
+        <v>18.2</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>9.871700000000001</v>
+        <v>33.8</v>
       </c>
       <c r="H4">
-        <v>14.04</v>
+        <v>-2.61</v>
       </c>
       <c r="I4">
-        <v>71.91</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>41.95</v>
+      </c>
+      <c r="E5">
+        <v>0.97</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>31.81</v>
-      </c>
-      <c r="E5">
-        <v>18.14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5">
-        <v>33.8</v>
+        <v>124.3589</v>
       </c>
       <c r="H5">
-        <v>-3.61</v>
+        <v>-6.140000000000001</v>
       </c>
       <c r="I5">
-        <v>-5.89</v>
+        <v>-66.28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>43.04</v>
+        <v>7.65</v>
       </c>
       <c r="E6">
-        <v>1.01</v>
+        <v>25.64</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>124.3589</v>
+        <v>8.594799999999999</v>
       </c>
       <c r="H6">
-        <v>-6.06</v>
+        <v>-10.21</v>
       </c>
       <c r="I6">
-        <v>-65.39</v>
+        <v>-10.99</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>24.93</v>
+        <v>27.66</v>
       </c>
       <c r="E7">
-        <v>12.11</v>
+        <v>22.11</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>26.44</v>
+        <v>27.89</v>
       </c>
       <c r="H7">
-        <v>-2.34</v>
+        <v>-0.6</v>
       </c>
       <c r="I7">
-        <v>-5.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>7.66</v>
-      </c>
-      <c r="E8">
-        <v>26.04</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>8.594799999999999</v>
-      </c>
-      <c r="H8">
-        <v>-10.1</v>
-      </c>
-      <c r="I8">
-        <v>-10.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>26.74</v>
-      </c>
-      <c r="E9">
-        <v>21.68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>27.89</v>
-      </c>
-      <c r="H9">
-        <v>-2.97</v>
-      </c>
-      <c r="I9">
-        <v>-4.16</v>
+        <v>-0.8200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-09-22" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-09-23" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>名称</t>
   </si>
@@ -43,9 +43,24 @@
     <t>盈亏比例(%)</t>
   </si>
   <si>
+    <t>逻辑为王</t>
+  </si>
+  <si>
     <t>一枝梨花</t>
   </si>
   <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>精达股份</t>
+  </si>
+  <si>
+    <t>钧达股份</t>
+  </si>
+  <si>
+    <t>汇金股份</t>
+  </si>
+  <si>
     <t>东信和平</t>
   </si>
   <si>
@@ -55,13 +70,19 @@
     <t>江海股份</t>
   </si>
   <si>
-    <t>钧达股份</t>
-  </si>
-  <si>
     <t>御银股份</t>
   </si>
   <si>
-    <t>飞龙股份</t>
+    <t>603259</t>
+  </si>
+  <si>
+    <t>600577</t>
+  </si>
+  <si>
+    <t>002865</t>
+  </si>
+  <si>
+    <t>300368</t>
   </si>
   <si>
     <t>002017</t>
@@ -73,13 +94,7 @@
     <t>002484</t>
   </si>
   <si>
-    <t>002865</t>
-  </si>
-  <si>
     <t>002177</t>
-  </si>
-  <si>
-    <t>002536</t>
   </si>
   <si>
     <t>沪深A股</t>
@@ -443,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,28 +498,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>25.02</v>
+        <v>105.67</v>
       </c>
       <c r="E2">
-        <v>22.74</v>
+        <v>33.1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>25.6454</v>
+        <v>105.05</v>
       </c>
       <c r="H2">
-        <v>-1.84</v>
+        <v>1.99</v>
       </c>
       <c r="I2">
-        <v>-2.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -512,144 +527,202 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>32.35</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E3">
-        <v>10.34</v>
+        <v>32.87</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>32.85</v>
+        <v>8.82</v>
       </c>
       <c r="H3">
-        <v>-0.52</v>
+        <v>-1.15</v>
       </c>
       <c r="I3">
-        <v>-1.58</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>32.36</v>
+        <v>40.63</v>
       </c>
       <c r="E4">
-        <v>18.2</v>
+        <v>15.33</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>33.8</v>
+        <v>46.8467</v>
       </c>
       <c r="H4">
-        <v>-2.61</v>
+        <v>-7.5</v>
       </c>
       <c r="I4">
-        <v>-4.26</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>41.95</v>
+        <v>16.06</v>
       </c>
       <c r="E5">
-        <v>0.97</v>
+        <v>20.21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>124.3589</v>
+        <v>16.4398</v>
       </c>
       <c r="H5">
-        <v>-6.140000000000001</v>
+        <v>-1.53</v>
       </c>
       <c r="I5">
-        <v>-66.28</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>7.65</v>
+        <v>23.97</v>
       </c>
       <c r="E6">
-        <v>25.64</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>8.594799999999999</v>
+        <v>26.2902</v>
       </c>
       <c r="H6">
-        <v>-10.21</v>
+        <v>-3.06</v>
       </c>
       <c r="I6">
-        <v>-10.99</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>27.66</v>
+        <v>34.85</v>
       </c>
       <c r="E7">
-        <v>22.11</v>
+        <v>11.22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>27.89</v>
+        <v>32.85</v>
       </c>
       <c r="H7">
-        <v>-0.6</v>
+        <v>2.06</v>
       </c>
       <c r="I7">
-        <v>-0.8200000000000001</v>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>32.89</v>
+      </c>
+      <c r="E8">
+        <v>18.64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>33.8</v>
+      </c>
+      <c r="H8">
+        <v>-1.65</v>
+      </c>
+      <c r="I8">
+        <v>-2.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>7.32</v>
+      </c>
+      <c r="E9">
+        <v>24.73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>8.594799999999999</v>
+      </c>
+      <c r="H9">
+        <v>-13.77</v>
+      </c>
+      <c r="I9">
+        <v>-15.3</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-23" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-24" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>股票代码</t>
+          <t>代码</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -477,6 +477,11 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>盈亏比例(%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
         </is>
       </c>
     </row>
@@ -488,19 +493,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>信质集团</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>603259</t>
+          <t>002664</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>104.78</v>
+        <v>31.93</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -508,13 +513,18 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>105.05</v>
+        <v>31.77</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.8699999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.26</v>
+        <v>0.47</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -525,19 +535,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>东材科技</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>600577</t>
+          <t>601208</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.470000000000001</v>
+        <v>21.45</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -545,235 +555,60 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.82</v>
+        <v>21.77</v>
       </c>
       <c r="H3" t="n">
-        <v>24.85</v>
+        <v>-5.07</v>
       </c>
       <c r="I3" t="n">
-        <v>7.37</v>
+        <v>-1.42</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>一枝梨花</t>
+          <t>逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>汇金股份</t>
+          <t>冠石科技</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300368</t>
+          <t>605588</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.02</v>
+        <v>57.97</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16.4398</v>
+        <v>57.43</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.69</v>
+        <v>3.24</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>一枝梨花</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>钧达股份</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>002865</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>46.8467</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-7.539999999999999</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-13.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>一枝梨花</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>东信和平</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>26.2902</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-8.48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>一枝梨花</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>铜冠铜箔</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>301217</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>34.13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>一枝梨花</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>江海股份</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>002484</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-3.58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>一枝梨花</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>002177</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.594799999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-13.79</v>
+        <v>0.98</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-09-25" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>最新价</t>
+  </si>
+  <si>
+    <t>新比例%</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>成本价</t>
+  </si>
+  <si>
+    <t>收益率(%)</t>
+  </si>
+  <si>
+    <t>盈亏比例(%)</t>
+  </si>
+  <si>
+    <t>逻辑为王</t>
+  </si>
+  <si>
+    <t>道氏技术</t>
+  </si>
+  <si>
+    <t>300409</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,198 +409,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>收益率(%)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例(%)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>信质集团</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>002664</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>31.93</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>24.64</v>
+      </c>
+      <c r="E2">
         <v>33</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>东材科技</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>601208</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>21.77</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-5.07</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1.42</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>冠石科技</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>605588</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>57.97</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>57.43</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>25.27</v>
+      </c>
+      <c r="H2">
+        <v>-8.6</v>
+      </c>
+      <c r="I2">
+        <v>-2.49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Combination_position.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-09-25" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-10-16" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>名称</t>
   </si>
@@ -46,13 +46,28 @@
     <t>逻辑为王</t>
   </si>
   <si>
-    <t>道氏技术</t>
-  </si>
-  <si>
-    <t>300409</t>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>巨力索具</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>300450</t>
+  </si>
+  <si>
+    <t>002342</t>
+  </si>
+  <si>
+    <t>002050</t>
   </si>
   <si>
     <t>创业板</t>
+  </si>
+  <si>
+    <t>沪深A股</t>
   </si>
 </sst>
 </file>
@@ -410,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,25 +468,83 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>54.44</v>
+      </c>
+      <c r="E2">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>52.78</v>
+      </c>
+      <c r="H2">
+        <v>11.51</v>
+      </c>
+      <c r="I2">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>24.64</v>
-      </c>
-      <c r="E2">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>7.95</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>7.85</v>
+      </c>
+      <c r="H3">
+        <v>4.51</v>
+      </c>
+      <c r="I3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>25.27</v>
-      </c>
-      <c r="H2">
-        <v>-8.6</v>
-      </c>
-      <c r="I2">
-        <v>-2.49</v>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>42.8</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>40.7</v>
+      </c>
+      <c r="H4">
+        <v>18.59</v>
+      </c>
+      <c r="I4">
+        <v>5.140000000000001</v>
       </c>
     </row>
   </sheetData>
